--- a/ig/ch-epl/StructureDefinition-ch-idmp-clinicalusedefinition-indication.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-clinicalusedefinition-indication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -538,7 +538,7 @@
     <t>A categorisation for a clinical use information item.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-category</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-category|5.0.0</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.subject</t>
@@ -572,7 +572,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
   </si>
   <si>
     <t>Definition.status</t>
@@ -647,7 +647,7 @@
     <t>ClinicalUseDefinition.contraindication.diseaseSymptomProcedure</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(ObservationDefinition)
+    <t xml:space="preserve">CodeableReference(ObservationDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>A symptom, disease or procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/disease-symptom-procedure</t>
+    <t>http://hl7.org/fhir/ValueSet/disease-symptom-procedure|5.0.0</t>
   </si>
   <si>
     <t>Contraindication.Contraindications as "Disease / Symptom / Procedure" and Contraindication.Contraindications Text</t>
@@ -681,7 +681,7 @@
     <t>The status of a disease or symptom.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/disease-status</t>
+    <t>http://hl7.org/fhir/ValueSet/disease-status|5.0.0</t>
   </si>
   <si>
     <t>Contraindication.Disease Status</t>
@@ -702,7 +702,7 @@
     <t>ClinicalUseDefinition.contraindication.indication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalUseDefinition)
+    <t xml:space="preserve">Reference(ClinicalUseDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>Classification of relationship between a therapy and a contraindication or an indication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/therapy-relationship-type</t>
+    <t>http://hl7.org/fhir/ValueSet/therapy-relationship-type|5.0.0</t>
   </si>
   <si>
     <t>Other Therapy Specifics.Therapy Relationship Type</t>
@@ -773,7 +773,7 @@
     <t>ClinicalUseDefinition.contraindication.otherTherapy.treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(MedicinalProductDefinition|Medication|Substance|SubstanceDefinition|NutritionProduct|BiologicallyDerivedProduct|ActivityDefinition)
+    <t xml:space="preserve">CodeableReference(MedicinalProductDefinition|5.0.0|Medication|5.0.0|Substance|5.0.0|SubstanceDefinition|5.0.0|NutritionProduct|5.0.0|BiologicallyDerivedProduct|5.0.0|ActivityDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -786,7 +786,7 @@
     <t>A therapy.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/therapy|5.0.0</t>
   </si>
   <si>
     <t>Other Therapy Specifics.Medication</t>
@@ -1387,14 +1387,14 @@
     <t>ClinicalUseDefinition.interaction.interactant.item[x]</t>
   </si>
   <si>
-    <t>Reference(MedicinalProductDefinition|Medication|Substance|NutritionProduct|BiologicallyDerivedProduct|ObservationDefinition)
+    <t>Reference(MedicinalProductDefinition|5.0.0|Medication|5.0.0|Substance|5.0.0|NutritionProduct|5.0.0|BiologicallyDerivedProduct|5.0.0|ObservationDefinition|5.0.0)
 CodeableConcept</t>
   </si>
   <si>
     <t>An interactant - a substance that may have a clinically significant effect on another.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/interactant</t>
+    <t>http://hl7.org/fhir/ValueSet/interactant|5.0.0</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.interaction.type</t>
@@ -1409,7 +1409,7 @@
     <t>A categorisation for an interaction between two substances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/interaction-type</t>
+    <t>http://hl7.org/fhir/ValueSet/interaction-type|5.0.0</t>
   </si>
   <si>
     <t>Interactions.Interactions Type</t>
@@ -1427,7 +1427,7 @@
     <t>A interaction effect of clinical use of a medication or other substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/interaction-effect</t>
+    <t>http://hl7.org/fhir/ValueSet/interaction-effect|5.0.0</t>
   </si>
   <si>
     <t>Interactions.Interactions Effect</t>
@@ -1445,7 +1445,7 @@
     <t>A categorisation for incidence of occurence of an interaction.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/interaction-incidence</t>
+    <t>http://hl7.org/fhir/ValueSet/interaction-incidence|5.0.0</t>
   </si>
   <si>
     <t>Interactions.Interactions Incidence</t>
@@ -1463,7 +1463,7 @@
     <t>A type of management for an interaction of a medication or other substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/interaction-management</t>
+    <t>http://hl7.org/fhir/ValueSet/interaction-management|5.0.0</t>
   </si>
   <si>
     <t>Interactions.Management Actions</t>
@@ -1472,7 +1472,7 @@
     <t>ClinicalUseDefinition.population</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group)
+    <t xml:space="preserve">Reference(Group|5.0.0)
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
     <t>ClinicalUseDefinition.library</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Library)
+    <t xml:space="preserve">canonical(Library|5.0.0)
 </t>
   </si>
   <si>
@@ -1531,7 +1531,7 @@
     <t>An undesirable effect of clinical use.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/undesirable-effect-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/undesirable-effect-symptom|5.0.0</t>
   </si>
   <si>
     <t>Undesirable Effects.Undesirable Effect as "Symptom / Condition / Effect"</t>
@@ -1549,7 +1549,7 @@
     <t>A categorisation for an undesirable effect.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/undesirable-effect-classification</t>
+    <t>http://hl7.org/fhir/ValueSet/undesirable-effect-classification|5.0.0</t>
   </si>
   <si>
     <t>Undesirable Effects.Symptom / Condition / Effect Classification</t>
@@ -1567,7 +1567,7 @@
     <t>A categorisation for a frequency of occurence of an undesirable effect.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/undesirable-effect-frequency</t>
+    <t>http://hl7.org/fhir/ValueSet/undesirable-effect-frequency|5.0.0</t>
   </si>
   <si>
     <t>Undesirable Effects.Frequency of Occurrence</t>
@@ -1616,7 +1616,7 @@
     <t>Classification of warning type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/warning-type</t>
+    <t>http://hl7.org/fhir/ValueSet/warning-type|5.0.0</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="121.99609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1957,7 +1957,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.0625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
